--- a/Experiements Result/P-3.xlsx
+++ b/Experiements Result/P-3.xlsx
@@ -94,9 +94,6 @@
     <t>Duplicate Unaware Rank SE</t>
   </si>
   <si>
-    <t>Query Type: P-1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Query:   select   ?o where{?uri &lt;http://data.semanticweb.org/ns/swc/ontology#hasRelatedDocument&gt; ?o1.?o1 &lt;http://swrc.ontoware.org/ontology#editor&gt; ?o. ?o1 &lt;http://swrc.ontoware.org/ontology#booktitle&gt; ?o . ?o1 &lt;http://swrc.ontoware.org/ontology#isbn&gt; ?o2}</t>
+  </si>
+  <si>
+    <t>Query Type: P-3</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
     <row r="11" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:20" s="12" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D12" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -981,7 +981,7 @@
     </row>
     <row r="18" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D18" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -1728,7 +1728,7 @@
         <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
@@ -2362,7 +2362,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
@@ -2371,7 +2371,7 @@
         <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
@@ -3005,7 +3005,7 @@
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
@@ -3014,7 +3014,7 @@
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
@@ -3081,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <v>8</v>
@@ -3137,10 +3137,10 @@
         <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67">
         <v>7</v>
@@ -3193,10 +3193,10 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3249,10 +3249,10 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -3304,10 +3304,10 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70">
         <v>6</v>
@@ -3360,10 +3360,10 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -3416,10 +3416,10 @@
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -3472,10 +3472,10 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -3528,10 +3528,10 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74">
         <v>9</v>
@@ -3584,10 +3584,10 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D75">
         <v>10</v>
